--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_103.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_103.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,628 +488,658 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[['C:min', 'G:7', 'C:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[('0:00:02.560000', '0:00:06.820000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:10.120000', '0:00:27.180000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_151</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D/5', 'A', 'D', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[['Bb', 'F', 'Bb', 'F', 'F']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[('0:00:27.963197', '0:00:40.095623')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:22.564557', '0:00:29.611814')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>isophonics_266</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3690476190476191</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['A', 'A/b7', 'C', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42), (29.5, 31.64)]</t>
+          <t>[['E', 'E', 'G', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (65.26, 71.04)]</t>
+          <t>[('0:00:21.788299', '0:00:28.963265')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:15.089433', '0:00:40.910022')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:08.300000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:15.940000', '0:00:24.900000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56), (2.36, 5.68)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (25.48, 32.76)]</t>
+          <t>[('0:00:36.820000', '0:00:38.820000'), ('0:00:36.520000', '0:00:38.280000'), ('0:00:09.260000', '0:00:13.900000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:10.760000', '0:00:23.600000'), ('0:00:47.140000', '0:00:55.200000'), ('0:00:00.360000', '0:00:05.600000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(58.46, 63.46)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(12.503707, 19.759943)]</t>
+          <t>[('0:00:23.260000', '0:00:26.800000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:03.840000', '0:01:05.240000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3555555555555555</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['F/2', 'C', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[('0:00:57.758000', '0:01:05.204000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:47.640000', '0:01:48.840000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(10.12, 35.88)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(36.04, 51.46)]</t>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2528735632183908</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.44, 126.44)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.36, 147.72)]</t>
+          <t>[('0:02:03.220000', '0:02:07.580000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:05.208150', '0:00:14.983242')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(4.74, 8.62)]</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:08.300000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.09807692307692308</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(6.12, 11.62)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:13.600000', '0:00:44.080000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
@@ -1113,40 +1148,40 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(7.14, 22.68)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(2.56, 6.82)]</t>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:00.560000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1154,49 +1189,9 @@
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(18.24, 29.1)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(42.14, 44.36)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
